--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_45.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_45.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_7</t>
+          <t>model_1_45_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998151282204492</v>
+        <v>0.9495389435619898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8269015025611346</v>
+        <v>0.7498246444257639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8153117738677329</v>
+        <v>0.7382615554057039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994428153103229</v>
+        <v>0.8855743874177937</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007695337178714933</v>
+        <v>0.1768917673155794</v>
       </c>
       <c r="G2" t="n">
-        <v>1.157510449418985</v>
+        <v>1.672923754676507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6606190760364767</v>
+        <v>0.936223239846794</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002744660095584394</v>
+        <v>0.419866827007922</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04482563501756092</v>
+        <v>1.417776139750295</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02774047075792863</v>
+        <v>0.4205850298281899</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011831793891254</v>
+        <v>0.9312870720844115</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02817735544206879</v>
+        <v>0.4272088236171995</v>
       </c>
       <c r="N2" t="n">
-        <v>144.3394515754973</v>
+        <v>37.46443443506745</v>
       </c>
       <c r="O2" t="n">
-        <v>285.6746241187137</v>
+        <v>74.42901802329328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_5</t>
+          <t>model_1_45_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999818584367772</v>
+        <v>0.9495729973097569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8268911280864791</v>
+        <v>0.7496741559919321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8156195093589238</v>
+        <v>0.7383216971937221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999488958908026</v>
+        <v>0.8851441569053115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007551474123718754</v>
+        <v>0.1767723915424297</v>
       </c>
       <c r="G3" t="n">
-        <v>1.157579823578776</v>
+        <v>1.673930071526476</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6595183240280158</v>
+        <v>0.9360081161582742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002517359357375009</v>
+        <v>0.4214454903515694</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04355726538930427</v>
+        <v>1.416907298728951</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0274799456399003</v>
+        <v>0.4204430895405818</v>
       </c>
       <c r="L3" t="n">
-        <v>1.011610600462589</v>
+        <v>0.9313334431452008</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02791272731386108</v>
+        <v>0.4270646479119498</v>
       </c>
       <c r="N3" t="n">
-        <v>144.377195159198</v>
+        <v>37.465784594813</v>
       </c>
       <c r="O3" t="n">
-        <v>285.7123677024144</v>
+        <v>74.43036818303882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_9</t>
+          <t>model_1_45_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998120541751542</v>
+        <v>0.9496570686238303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8268829503546871</v>
+        <v>0.7492207891842342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8152451810507262</v>
+        <v>0.7384810932379524</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994177534202415</v>
+        <v>0.8838555520389644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007823295134790375</v>
+        <v>0.1764776786613141</v>
       </c>
       <c r="G4" t="n">
-        <v>1.157634508108925</v>
+        <v>1.676961737457113</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6608572746816366</v>
+        <v>0.9354379657503761</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002868113540914866</v>
+        <v>0.4261738236704006</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04305194806045205</v>
+        <v>1.414351106927053</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02797015397667731</v>
+        <v>0.4200924644186255</v>
       </c>
       <c r="L4" t="n">
-        <v>1.012028532790133</v>
+        <v>0.9314479232324497</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02841065594191378</v>
+        <v>0.4267085007948191</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3064690668724</v>
+        <v>37.46912175422896</v>
       </c>
       <c r="O4" t="n">
-        <v>285.6416416100888</v>
+        <v>74.43370534245479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_6</t>
+          <t>model_1_45_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998190004725672</v>
+        <v>0.94967951377229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8268387086415165</v>
+        <v>0.7490708440331058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8154027401473134</v>
+        <v>0.7385263788580012</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994778366662839</v>
+        <v>0.8834281753859692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007534153650531535</v>
+        <v>0.1763989969558768</v>
       </c>
       <c r="G5" t="n">
-        <v>1.157930352648611</v>
+        <v>1.677964421373143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6602936949289453</v>
+        <v>0.935275981713273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002572146887701646</v>
+        <v>0.427742015224555</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0452252233559339</v>
+        <v>1.413511004886335</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02744841279661091</v>
+        <v>0.4199988058981559</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011583969755698</v>
+        <v>0.9314784868388629</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02788069785981117</v>
+        <v>0.4266133672462763</v>
       </c>
       <c r="N5" t="n">
-        <v>144.3817877372617</v>
+        <v>37.47001364323357</v>
       </c>
       <c r="O5" t="n">
-        <v>285.7169602804781</v>
+        <v>74.43459723145939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_8</t>
+          <t>model_1_45_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998126473241364</v>
+        <v>0.9496993436683744</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8268175492993423</v>
+        <v>0.7489202821312497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8152028352249509</v>
+        <v>0.738568346188745</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999422010191669</v>
+        <v>0.8830017897390933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007798605150052031</v>
+        <v>0.1763294830453156</v>
       </c>
       <c r="G6" t="n">
-        <v>1.158071845267159</v>
+        <v>1.678971229504128</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6610087432450829</v>
+        <v>0.9351258670046079</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002847144926935938</v>
+        <v>0.4293065704372868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04307175340783695</v>
+        <v>1.412676162089464</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02792598279390008</v>
+        <v>0.4199160428529918</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011990571255268</v>
+        <v>0.9315054892505523</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02836578910716279</v>
+        <v>0.4265293007658836</v>
       </c>
       <c r="N6" t="n">
-        <v>144.312790962377</v>
+        <v>37.47080194262421</v>
       </c>
       <c r="O6" t="n">
-        <v>285.6479635055933</v>
+        <v>74.43538553085003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_4</t>
+          <t>model_1_45_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998275295413886</v>
+        <v>0.9497166545749199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8266010382344422</v>
+        <v>0.7487711325042899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8156829935124559</v>
+        <v>0.738606162125915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995584118200426</v>
+        <v>0.8825764525248165</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007179128883845647</v>
+        <v>0.1762687994792386</v>
       </c>
       <c r="G7" t="n">
-        <v>1.159519655755088</v>
+        <v>1.67996859374638</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6592912448918544</v>
+        <v>0.9349906015900449</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002175238262403101</v>
+        <v>0.4308672785911405</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04405163929993733</v>
+        <v>1.411853077044665</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02679389647633514</v>
+        <v>0.4198437798505995</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011038109351126</v>
+        <v>0.9315290615488272</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02721587356176734</v>
+        <v>0.4264558996934401</v>
       </c>
       <c r="N7" t="n">
-        <v>144.4783246432925</v>
+        <v>37.47149035853187</v>
       </c>
       <c r="O7" t="n">
-        <v>285.8134971865089</v>
+        <v>74.43607394675769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_3</t>
+          <t>model_1_45_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998399390325264</v>
+        <v>0.9497745893551511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8262151307886304</v>
+        <v>0.7477270012170616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8156078264904868</v>
+        <v>0.7387980718956217</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996386232210258</v>
+        <v>0.8796418404216669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006662580502297054</v>
+        <v>0.1760657084940802</v>
       </c>
       <c r="G8" t="n">
-        <v>1.162100220622172</v>
+        <v>1.686950704471858</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6595601129710036</v>
+        <v>0.9343041514713716</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001780121462590831</v>
+        <v>0.4416353771351903</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04891852483805138</v>
+        <v>1.406317475843508</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02581197493857658</v>
+        <v>0.4196018451986123</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010243901918308</v>
+        <v>0.9316079514623334</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02621848774135051</v>
+        <v>0.4262101548125301</v>
       </c>
       <c r="N8" t="n">
-        <v>144.6276669993217</v>
+        <v>37.47379601980609</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9628395425381</v>
+        <v>74.43837960803191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_1</t>
+          <t>model_1_45_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999877512890091</v>
+        <v>0.9497751709444984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8261046087424061</v>
+        <v>0.7475810584193311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8165109943120423</v>
+        <v>0.7388121835800721</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998272593746665</v>
+        <v>0.8792319693323014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005098558650142411</v>
+        <v>0.1760636697264693</v>
       </c>
       <c r="G9" t="n">
-        <v>1.162839282054181</v>
+        <v>1.687926624632287</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6563295340419786</v>
+        <v>0.9342536747943355</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008509104970451457</v>
+        <v>0.4431393347709911</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04803444768069157</v>
+        <v>1.405562602097177</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02257998815354519</v>
+        <v>0.4195994157842325</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007839175034178</v>
+        <v>0.931608743413785</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02293560039525636</v>
+        <v>0.4262076871373023</v>
       </c>
       <c r="N9" t="n">
-        <v>145.1627649796178</v>
+        <v>37.47381917910761</v>
       </c>
       <c r="O9" t="n">
-        <v>286.4979375228343</v>
+        <v>74.43840276733343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_2</t>
+          <t>model_1_45_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999848111834146</v>
+        <v>0.9497740481616634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8260356106822347</v>
+        <v>0.7474358565811525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8157674470203095</v>
+        <v>0.7388244841608864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996825082500042</v>
+        <v>0.8788236319211433</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006322385453000104</v>
+        <v>0.1760676056535782</v>
       </c>
       <c r="G10" t="n">
-        <v>1.163300672400254</v>
+        <v>1.688897589992779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.658989159591158</v>
+        <v>0.934209676329991</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001563946305480739</v>
+        <v>0.4446376648153103</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04906950435166954</v>
+        <v>1.404812057844197</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02514435414362457</v>
+        <v>0.4196041058588181</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009720842614655</v>
+        <v>0.9316072145180098</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02554035258625396</v>
+        <v>0.4262124510758742</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7324875798739</v>
+        <v>37.47377446933731</v>
       </c>
       <c r="O10" t="n">
-        <v>286.0676601230903</v>
+        <v>74.43835805756314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_0</t>
+          <t>model_1_45_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998853141043011</v>
+        <v>0.9497711455996394</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8259248170437845</v>
+        <v>0.7472912714376941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.817157318413182</v>
+        <v>0.7388336872157188</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998959827015969</v>
+        <v>0.878417689081205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004773831025966622</v>
+        <v>0.1760777806154678</v>
       </c>
       <c r="G11" t="n">
-        <v>1.164041549970728</v>
+        <v>1.689864431512839</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6540176702082265</v>
+        <v>0.9341767575364793</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005123832967178864</v>
+        <v>0.4461272083563515</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04773492587461093</v>
+        <v>1.404074438890851</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0218490984389897</v>
+        <v>0.4196162301621182</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007339897324727</v>
+        <v>0.9316032620931259</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02219319989831829</v>
+        <v>0.4262247663248315</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2943824786611</v>
+        <v>37.47365889250695</v>
       </c>
       <c r="O11" t="n">
-        <v>286.6295550218775</v>
+        <v>74.43824248073278</v>
       </c>
     </row>
   </sheetData>
